--- a/properties_output.xlsx
+++ b/properties_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="57">
   <si>
     <t>A</t>
   </si>
@@ -55,72 +55,87 @@
     <t>Contact Name</t>
   </si>
   <si>
-    <t>CARL HOLLISTER</t>
-  </si>
-  <si>
-    <t>MICHAEL PIHAKIS</t>
-  </si>
-  <si>
-    <t>CHRIST COUMANIS</t>
-  </si>
-  <si>
-    <t>ANGELO KOSTARIDES</t>
-  </si>
-  <si>
-    <t>ANGELA MAGRAMES</t>
-  </si>
-  <si>
-    <t>JOHN GROSSOMANIDES</t>
-  </si>
-  <si>
-    <t>JOHN MILLER</t>
-  </si>
-  <si>
-    <t>PETER NASSOS</t>
-  </si>
-  <si>
-    <t>JOHN ZOURZOUKIS</t>
-  </si>
-  <si>
-    <t>S CHRISTY KARTHAN</t>
-  </si>
-  <si>
-    <t>IKE GULAS</t>
-  </si>
-  <si>
-    <t>JIMMY MAKRIS</t>
-  </si>
-  <si>
-    <t>PANOS NIARCHOS</t>
+    <t>Albert Dudley</t>
+  </si>
+  <si>
+    <t>Benjamin Jones</t>
+  </si>
+  <si>
+    <t>D Snell</t>
+  </si>
+  <si>
+    <t>Andryna Kuzmicic</t>
+  </si>
+  <si>
+    <t>Paul Gunn</t>
+  </si>
+  <si>
+    <t>Marie Hollis</t>
+  </si>
+  <si>
+    <t>Carlos Coates</t>
+  </si>
+  <si>
+    <t>Cheri L Blair</t>
+  </si>
+  <si>
+    <t>Mitzi Johnson</t>
+  </si>
+  <si>
+    <t>Rev Don Koepke</t>
+  </si>
+  <si>
+    <t>Anita McCrimon</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Martin T Laurent</t>
+  </si>
+  <si>
+    <t>Jean Enock Berus</t>
+  </si>
+  <si>
+    <t>Robert J Chillison II</t>
   </si>
   <si>
     <t>Owner Organization Name</t>
   </si>
   <si>
-    <t>AHEPA 23 II, Inc.</t>
+    <t>HUNTSVILLE ADVENTIST APARTMENTS, INC.</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
+    <t>SOUTH BAY RETIREMENT RESIDENCE</t>
+  </si>
+  <si>
     <t>Property Name</t>
   </si>
   <si>
-    <t>AHEPA 23-II APARTMENTS</t>
+    <t>HUNTSVILLE ADVENT APTS</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>South Bay Retirement Residence</t>
+  </si>
+  <si>
     <t>Project Category</t>
   </si>
   <si>
+    <t>Insured-Subsidized</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
     <t>202/811</t>
   </si>
   <si>
-    <t>Adress</t>
-  </si>
-  <si>
     <t>Owner Company Type</t>
   </si>
   <si>
@@ -136,13 +151,19 @@
     <t>(Address) Line 1</t>
   </si>
   <si>
-    <t>285 Sylvest Drive</t>
+    <t>3409 NW VENONA AVE</t>
+  </si>
+  <si>
+    <t>1001 W CRESSEY ST</t>
   </si>
   <si>
     <t>(Address) City</t>
   </si>
   <si>
-    <t>MONTGOMERY</t>
+    <t>HUNTSVILLE</t>
+  </si>
+  <si>
+    <t>COMPTON</t>
   </si>
   <si>
     <t>(Address) State</t>
@@ -151,13 +172,19 @@
     <t>AL</t>
   </si>
   <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>(Address) Postal Code</t>
   </si>
   <si>
     <t>ProPublica Link</t>
   </si>
   <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/631140959</t>
+    <t>https://projects.propublica.org/nonprofits/organizations/630878986</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/954321266</t>
   </si>
 </sst>
 </file>
@@ -528,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,66 +601,66 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>800000130</v>
+        <v>800000304</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -641,16 +668,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -680,42 +707,111 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11">
+        <v>800000304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -723,72 +819,84 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>800000130</v>
+        <v>800000304</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>12</v>
       </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
@@ -817,48 +925,364 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>19</v>
+      <c r="A27">
+        <v>800000304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>800000067</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>800000304</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>76</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K19" r:id="rId2"/>
+    <hyperlink ref="K11" r:id="rId2"/>
+    <hyperlink ref="K19" r:id="rId3"/>
+    <hyperlink ref="K27" r:id="rId4"/>
+    <hyperlink ref="K35" r:id="rId5"/>
+    <hyperlink ref="K48" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/properties_output.xlsx
+++ b/properties_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="211">
   <si>
     <t>A</t>
   </si>
@@ -55,19 +55,160 @@
     <t>Contact Name</t>
   </si>
   <si>
-    <t>Albert Dudley</t>
-  </si>
-  <si>
-    <t>Benjamin Jones</t>
-  </si>
-  <si>
-    <t>D Snell</t>
-  </si>
-  <si>
-    <t>Andryna Kuzmicic</t>
-  </si>
-  <si>
-    <t>Paul Gunn</t>
+    <t>STEPHEN MURPHY</t>
+  </si>
+  <si>
+    <t>FRED MISSEL</t>
+  </si>
+  <si>
+    <t>EMILY DOUGLAS</t>
+  </si>
+  <si>
+    <t>REBECCA IVINS</t>
+  </si>
+  <si>
+    <t>SUZANNE MORSE MOOMAW PHD</t>
+  </si>
+  <si>
+    <t>LIZ RUSSELL</t>
+  </si>
+  <si>
+    <t>JAMES BROWN</t>
+  </si>
+  <si>
+    <t>CRAIG KAISER</t>
+  </si>
+  <si>
+    <t>CARMELITA WOOD</t>
+  </si>
+  <si>
+    <t>MARGARET ANDERSON</t>
+  </si>
+  <si>
+    <t>CHARLEY LEWIS</t>
+  </si>
+  <si>
+    <t>JENNIFER JACOBS</t>
+  </si>
+  <si>
+    <t>WAKI WYNN</t>
+  </si>
+  <si>
+    <t>KRISTIN SZAKOS</t>
+  </si>
+  <si>
+    <t>KENNETH G HODDER</t>
+  </si>
+  <si>
+    <t>F BRADFORD BAILEY</t>
+  </si>
+  <si>
+    <t>STEVEN M HOWARD</t>
+  </si>
+  <si>
+    <t>BRAMWELL E HIGGINS</t>
+  </si>
+  <si>
+    <t>DAVID HARVEY</t>
+  </si>
+  <si>
+    <t>RENEA SMITH</t>
+  </si>
+  <si>
+    <t>JAMES W MCDOWELL</t>
+  </si>
+  <si>
+    <t>JONATHAN RICH</t>
+  </si>
+  <si>
+    <t>KELLY COLLINS</t>
+  </si>
+  <si>
+    <t>JANET MEEKS</t>
+  </si>
+  <si>
+    <t>J LYNN ANDERSON</t>
+  </si>
+  <si>
+    <t>GREG COMFORT</t>
+  </si>
+  <si>
+    <t>TIM DONEY</t>
+  </si>
+  <si>
+    <t>TINGTING LI</t>
+  </si>
+  <si>
+    <t>JOSEPH R KASBERG</t>
+  </si>
+  <si>
+    <t>LARRY BELLMAN</t>
+  </si>
+  <si>
+    <t>STEVEN T BODKIN</t>
+  </si>
+  <si>
+    <t>SUSAN M DIMICKELE</t>
+  </si>
+  <si>
+    <t>MATTHEW D RULE</t>
+  </si>
+  <si>
+    <t>TANYA KIM HAHN</t>
+  </si>
+  <si>
+    <t>JULIA A FRATIANNE</t>
+  </si>
+  <si>
+    <t>SONYA M BROWN</t>
+  </si>
+  <si>
+    <t>JILL KOLB</t>
+  </si>
+  <si>
+    <t>JULIE M WOOLLEY</t>
+  </si>
+  <si>
+    <t>MARY BETH KARR</t>
+  </si>
+  <si>
+    <t>TOM GROGAN</t>
+  </si>
+  <si>
+    <t>JEFF BEICH</t>
+  </si>
+  <si>
+    <t>ROBERT HOAG</t>
+  </si>
+  <si>
+    <t>BEVERLY KUBALA</t>
+  </si>
+  <si>
+    <t>KATHLEEN O'HARA</t>
+  </si>
+  <si>
+    <t>LESLIE LATHAM</t>
+  </si>
+  <si>
+    <t>GAYLE MURPHY</t>
+  </si>
+  <si>
+    <t>BARBARA A GASIEWICZ</t>
+  </si>
+  <si>
+    <t>DANIEL P O'NEILL</t>
+  </si>
+  <si>
+    <t>DAVID REICHARD</t>
+  </si>
+  <si>
+    <t>ROBERT WHITNEY</t>
+  </si>
+  <si>
+    <t>KARIN ZIEGLER</t>
+  </si>
+  <si>
+    <t>KRISTIN M ANDERSON</t>
   </si>
   <si>
     <t>Marie Hollis</t>
@@ -100,42 +241,261 @@
     <t>Robert J Chillison II</t>
   </si>
   <si>
+    <t>MICHAEL D LIZARRAGA</t>
+  </si>
+  <si>
+    <t>TOM PROVENCIO</t>
+  </si>
+  <si>
+    <t>PAUL SAMUEL</t>
+  </si>
+  <si>
+    <t>JOSE ELIZONDO</t>
+  </si>
+  <si>
+    <t>ALEX SOTOMAYOR</t>
+  </si>
+  <si>
+    <t>JAMES HODGES</t>
+  </si>
+  <si>
+    <t>Marc Stover</t>
+  </si>
+  <si>
+    <t>Julie Klassy</t>
+  </si>
+  <si>
+    <t>Jan Van den Top</t>
+  </si>
+  <si>
+    <t>Jan Hood</t>
+  </si>
+  <si>
+    <t>Kathleen Kowalczuk</t>
+  </si>
+  <si>
+    <t>Karen Ward</t>
+  </si>
+  <si>
+    <t>Sue Perrins</t>
+  </si>
+  <si>
+    <t>COLLEEN DUSHKIN</t>
+  </si>
+  <si>
+    <t>BRYAN BUTCHER</t>
+  </si>
+  <si>
+    <t>CLIFF RICHTER</t>
+  </si>
+  <si>
+    <t>BRENDA AKELKOK</t>
+  </si>
+  <si>
+    <t>TERI NUTTER</t>
+  </si>
+  <si>
+    <t>VIOLA YATCHEMENEFF</t>
+  </si>
+  <si>
+    <t>MARK CHARLIE</t>
+  </si>
+  <si>
+    <t>JOLENE LYON</t>
+  </si>
+  <si>
+    <t>CAROL GORE</t>
+  </si>
+  <si>
+    <t>ORIE WILLIAMS</t>
+  </si>
+  <si>
+    <t>MINDY PRUITT</t>
+  </si>
+  <si>
+    <t>CHRIS COLLINS</t>
+  </si>
+  <si>
+    <t>JACKIE PATA</t>
+  </si>
+  <si>
+    <t>MYRNA CHANEY</t>
+  </si>
+  <si>
+    <t>OLEN HARRIS</t>
+  </si>
+  <si>
+    <t>GRIFFEN HAGLE</t>
+  </si>
+  <si>
+    <t>Tamara Rowcroft</t>
+  </si>
+  <si>
+    <t>Stephen Sorensen</t>
+  </si>
+  <si>
+    <t>Minerva Mac Carandang</t>
+  </si>
+  <si>
+    <t>Mary Bernadette Blankenship</t>
+  </si>
+  <si>
+    <t>Cynthia Gleason</t>
+  </si>
+  <si>
+    <t>Calvin Cockroft</t>
+  </si>
+  <si>
+    <t>Tasha Hotch</t>
+  </si>
+  <si>
+    <t>Owen Carey</t>
+  </si>
+  <si>
+    <t>Syl Fowlis</t>
+  </si>
+  <si>
+    <t>CARL HOLLISTER</t>
+  </si>
+  <si>
+    <t>MICHAEL PIHAKIS</t>
+  </si>
+  <si>
+    <t>CHRIST COUMANIS</t>
+  </si>
+  <si>
+    <t>ANGELO KOSTARIDES</t>
+  </si>
+  <si>
+    <t>ANGELA MAGRAMES</t>
+  </si>
+  <si>
+    <t>JOHN GROSSOMANIDES</t>
+  </si>
+  <si>
+    <t>JOHN MILLER</t>
+  </si>
+  <si>
+    <t>PETER NASSOS</t>
+  </si>
+  <si>
+    <t>JOHN ZOURZOUKIS</t>
+  </si>
+  <si>
+    <t>S CHRISTY KARTHAN</t>
+  </si>
+  <si>
+    <t>IKE GULAS</t>
+  </si>
+  <si>
+    <t>JIMMY MAKRIS</t>
+  </si>
+  <si>
+    <t>PANOS NIARCHOS</t>
+  </si>
+  <si>
     <t>Owner Organization Name</t>
   </si>
   <si>
-    <t>HUNTSVILLE ADVENTIST APARTMENTS, INC.</t>
+    <t>ALBEMARLE HOUSING ASSOCIATES, LP</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
+    <t>ALABAMA BAPTIST RETIREMENT CENTERS, INC.</t>
+  </si>
+  <si>
+    <t>BOOTH MANOR, INC.</t>
+  </si>
+  <si>
+    <t>National Church Residences of Cap. Hgts., MD</t>
+  </si>
+  <si>
+    <t>Ken-Ton Presbyterian Village</t>
+  </si>
+  <si>
     <t>SOUTH BAY RETIREMENT RESIDENCE</t>
   </si>
   <si>
+    <t>Telacu Housing-National City, Inc.</t>
+  </si>
+  <si>
+    <t>Alaska Housing Finance Corporation</t>
+  </si>
+  <si>
+    <t>ALASKA HOUSING DEVELOPMENT CORP.</t>
+  </si>
+  <si>
+    <t>NeighborWorks Anchorage</t>
+  </si>
+  <si>
+    <t>AHEPA 23 II, Inc.</t>
+  </si>
+  <si>
     <t>Property Name</t>
   </si>
   <si>
-    <t>HUNTSVILLE ADVENT APTS</t>
+    <t>PARK'S EDGE</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>HUTTO TOWER</t>
+  </si>
+  <si>
+    <t>BOOTH MANOR</t>
+  </si>
+  <si>
+    <t>GATEWAY VILLAGE</t>
+  </si>
+  <si>
+    <t>Ken-Ton Presbyterian</t>
+  </si>
+  <si>
     <t>South Bay Retirement Residence</t>
   </si>
   <si>
+    <t>TELACU Southbay Manor</t>
+  </si>
+  <si>
+    <t>CHUGACH VIEW</t>
+  </si>
+  <si>
+    <t>GOLDEN TOWERS APARTMENTS</t>
+  </si>
+  <si>
+    <t>GRUENING PARK</t>
+  </si>
+  <si>
+    <t>STEPHEN'S PARK APARTMENTS</t>
+  </si>
+  <si>
+    <t>AHEPA 23-II APARTMENTS</t>
+  </si>
+  <si>
     <t>Project Category</t>
   </si>
   <si>
+    <t>Adress</t>
+  </si>
+  <si>
     <t>Insured-Subsidized</t>
   </si>
   <si>
-    <t>Adress</t>
+    <t>Subsidized - Previously 202/811</t>
   </si>
   <si>
     <t>202/811</t>
   </si>
   <si>
+    <t>Subsidized, No HUD Financing</t>
+  </si>
+  <si>
+    <t>Subsidized - Previously Insured</t>
+  </si>
+  <si>
     <t>Owner Company Type</t>
   </si>
   <si>
@@ -151,40 +511,142 @@
     <t>(Address) Line 1</t>
   </si>
   <si>
-    <t>3409 NW VENONA AVE</t>
+    <t>181 Whitewood Road</t>
+  </si>
+  <si>
+    <t>4426 WEST MAIN ST</t>
+  </si>
+  <si>
+    <t>6111 E 129TH ST</t>
+  </si>
+  <si>
+    <t>505 SUFFOLK AVE</t>
+  </si>
+  <si>
+    <t>3735 Delaware Ave</t>
   </si>
   <si>
     <t>1001 W CRESSEY ST</t>
   </si>
   <si>
+    <t>650 E 14TH ST</t>
+  </si>
+  <si>
+    <t>1280 E. 17th Avenue</t>
+  </si>
+  <si>
+    <t>330 Third Avenue</t>
+  </si>
+  <si>
+    <t>1800 Northwood Dr # A</t>
+  </si>
+  <si>
+    <t>3200 LATOUCHE ST</t>
+  </si>
+  <si>
+    <t>285 Sylvest Drive</t>
+  </si>
+  <si>
     <t>(Address) City</t>
   </si>
   <si>
-    <t>HUNTSVILLE</t>
+    <t>CHARLOTTESVILLE</t>
+  </si>
+  <si>
+    <t>DOTHAN</t>
+  </si>
+  <si>
+    <t>GRANDVIEW</t>
+  </si>
+  <si>
+    <t>CAPITOL HEIGHTS</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
   </si>
   <si>
     <t>COMPTON</t>
   </si>
   <si>
+    <t>NATIONAL CITY</t>
+  </si>
+  <si>
+    <t>ANCHORAGE</t>
+  </si>
+  <si>
+    <t>FAIRBANKS</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
+    <t>MONTGOMERY</t>
+  </si>
+  <si>
     <t>(Address) State</t>
   </si>
   <si>
+    <t>VA</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>AK</t>
+  </si>
+  <si>
     <t>(Address) Postal Code</t>
   </si>
   <si>
     <t>ProPublica Link</t>
   </si>
   <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/630878986</t>
+    <t>https://projects.propublica.org/nonprofits/organizations/541028220</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/630975108</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/431170012</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/222804848</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/161127014</t>
   </si>
   <si>
     <t>https://projects.propublica.org/nonprofits/organizations/954321266</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/954397222</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/452634394</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/920070125</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/237121924</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/824439617</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/631140959</t>
   </si>
 </sst>
 </file>
@@ -555,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,66 +1063,66 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>800000304</v>
+        <v>1272</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="F3">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>190</v>
+      </c>
+      <c r="J3">
+        <v>22901</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -668,16 +1130,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -707,582 +1169,1543 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11">
-        <v>800000304</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>55</v>
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>800000304</v>
-      </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19">
-        <v>76</v>
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>55</v>
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20">
+        <v>800000155</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>14</v>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>15</v>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>17</v>
+      <c r="A25">
+        <v>800000012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27">
-        <v>800000304</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27">
-        <v>76</v>
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>55</v>
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>161</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35">
-        <v>800000067</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="A35" t="s">
         <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>19</v>
+      <c r="A38">
+        <v>800000034</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="s">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>800000040</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I59" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" t="s">
+        <v>197</v>
+      </c>
+      <c r="K59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" t="s">
+        <v>194</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
         <v>53</v>
       </c>
-      <c r="K47" t="s">
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>800000304</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48">
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>800000067</v>
+      </c>
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" t="s">
+        <v>197</v>
+      </c>
+      <c r="K77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78" t="s">
+        <v>195</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>800000071</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" t="s">
+        <v>163</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91" t="s">
+        <v>177</v>
+      </c>
+      <c r="I91" t="s">
+        <v>189</v>
+      </c>
+      <c r="J91" t="s">
+        <v>197</v>
+      </c>
+      <c r="K91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
         <v>76</v>
       </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F92">
+        <v>75</v>
+      </c>
+      <c r="G92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H92" t="s">
+        <v>184</v>
+      </c>
+      <c r="I92" t="s">
+        <v>195</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>800000088</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>17</v>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" t="s">
+        <v>163</v>
+      </c>
+      <c r="G101" t="s">
+        <v>164</v>
+      </c>
+      <c r="H101" t="s">
+        <v>177</v>
+      </c>
+      <c r="I101" t="s">
+        <v>189</v>
+      </c>
+      <c r="J101" t="s">
+        <v>197</v>
+      </c>
+      <c r="K101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>120</v>
+      </c>
+      <c r="G102" t="s">
+        <v>172</v>
+      </c>
+      <c r="H102" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" t="s">
+        <v>196</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>800000098</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" t="s">
+        <v>160</v>
+      </c>
+      <c r="F112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112" t="s">
+        <v>164</v>
+      </c>
+      <c r="H112" t="s">
+        <v>177</v>
+      </c>
+      <c r="I112" t="s">
+        <v>189</v>
+      </c>
+      <c r="J112" t="s">
+        <v>197</v>
+      </c>
+      <c r="K112" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" t="s">
+        <v>161</v>
+      </c>
+      <c r="F113">
+        <v>96</v>
+      </c>
+      <c r="G113" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" t="s">
+        <v>186</v>
+      </c>
+      <c r="I113" t="s">
+        <v>196</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>800000099</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" t="s">
+        <v>160</v>
+      </c>
+      <c r="F132" t="s">
+        <v>163</v>
+      </c>
+      <c r="G132" t="s">
+        <v>164</v>
+      </c>
+      <c r="H132" t="s">
+        <v>177</v>
+      </c>
+      <c r="I132" t="s">
+        <v>189</v>
+      </c>
+      <c r="J132" t="s">
+        <v>197</v>
+      </c>
+      <c r="K132" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133">
+        <v>96</v>
+      </c>
+      <c r="G133" t="s">
+        <v>174</v>
+      </c>
+      <c r="H133" t="s">
+        <v>187</v>
+      </c>
+      <c r="I133" t="s">
+        <v>196</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>800000117</v>
+      </c>
+      <c r="B139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>163</v>
+      </c>
+      <c r="G141" t="s">
+        <v>164</v>
+      </c>
+      <c r="H141" t="s">
+        <v>177</v>
+      </c>
+      <c r="I141" t="s">
+        <v>189</v>
+      </c>
+      <c r="J141" t="s">
+        <v>197</v>
+      </c>
+      <c r="K141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142">
+        <v>160</v>
+      </c>
+      <c r="G142" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" t="s">
+        <v>185</v>
+      </c>
+      <c r="I142" t="s">
+        <v>196</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>800000130</v>
+      </c>
+      <c r="B147" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" t="s">
+        <v>139</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" t="s">
+        <v>160</v>
+      </c>
+      <c r="F149" t="s">
+        <v>163</v>
+      </c>
+      <c r="G149" t="s">
+        <v>164</v>
+      </c>
+      <c r="H149" t="s">
+        <v>177</v>
+      </c>
+      <c r="I149" t="s">
+        <v>189</v>
+      </c>
+      <c r="J149" t="s">
+        <v>197</v>
+      </c>
+      <c r="K149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" t="s">
+        <v>161</v>
+      </c>
+      <c r="F150">
+        <v>71</v>
+      </c>
+      <c r="G150" t="s">
+        <v>176</v>
+      </c>
+      <c r="H150" t="s">
+        <v>188</v>
+      </c>
+      <c r="I150" t="s">
+        <v>191</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" t="s">
+        <v>141</v>
+      </c>
+      <c r="D151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
-    <hyperlink ref="K19" r:id="rId3"/>
-    <hyperlink ref="K27" r:id="rId4"/>
-    <hyperlink ref="K35" r:id="rId5"/>
-    <hyperlink ref="K48" r:id="rId6"/>
+    <hyperlink ref="K23" r:id="rId2"/>
+    <hyperlink ref="K28" r:id="rId3"/>
+    <hyperlink ref="K41" r:id="rId4"/>
+    <hyperlink ref="K60" r:id="rId5"/>
+    <hyperlink ref="K78" r:id="rId6"/>
+    <hyperlink ref="K92" r:id="rId7"/>
+    <hyperlink ref="K102" r:id="rId8"/>
+    <hyperlink ref="K113" r:id="rId9"/>
+    <hyperlink ref="K133" r:id="rId10"/>
+    <hyperlink ref="K142" r:id="rId11"/>
+    <hyperlink ref="K150" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
